--- a/evaluation/results/cnn_anogan/split_4/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/cnn_anogan/split_4/test_95_5/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.5768621236133122</v>
       </c>
       <c r="H2">
-        <v>0.5833333333333333</v>
+        <v>0.52133493846977</v>
       </c>
       <c r="I2">
         <v>28</v>
